--- a/CampDeBases/Sud-Ouest/Docs/2015-05-04 gsoi- sourcing Xiti.xlsx
+++ b/CampDeBases/Sud-Ouest/Docs/2015-05-04 gsoi- sourcing Xiti.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Camp de bases\Projects\CampDeBases\Sud-Ouest\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="22380" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
   <si>
     <t>NomSource</t>
   </si>
@@ -441,6 +446,132 @@
   </si>
   <si>
     <t>Quelle distinction entre ce champ et "Sources", "Types de source"?</t>
+  </si>
+  <si>
+    <t>Атрибуты, которые квалифицируются визит в контакте</t>
+  </si>
+  <si>
+    <t>Все виды информации, которые могут быть собраны во время чтения контента сайта и его настройки</t>
+  </si>
+  <si>
+    <t>Название сайта, данные которого извлекается</t>
+  </si>
+  <si>
+    <t>Время индикаторы</t>
+  </si>
+  <si>
+    <t>Тип используемой технологии для доступа к информации, а также расположение передаются по этой технологии</t>
+  </si>
+  <si>
+    <t>Средства, с помощью которых контакт доступ к сайту</t>
+  </si>
+  <si>
+    <t>Количество просмотренных страниц за посещение</t>
+  </si>
+  <si>
+    <t>Время, проведенное за посещение</t>
+  </si>
+  <si>
+    <t>Сервер времени при входе</t>
+  </si>
+  <si>
+    <t>Департамент определены</t>
+  </si>
+  <si>
+    <t>Столица департамента определены</t>
+  </si>
+  <si>
+    <t>Кампании использовать непроданные рекламные места содействия преимущества продаваемых собственного сайта</t>
+  </si>
+  <si>
+    <t>Что это поле?</t>
+  </si>
+  <si>
+    <t>Цель достигается личности на ее naviguation на сайте</t>
+  </si>
+  <si>
+    <t>ID клиента</t>
+  </si>
+  <si>
+    <t>Номер заказа</t>
+  </si>
+  <si>
+    <t>Статус Заказа</t>
+  </si>
+  <si>
+    <t>Дата создания статьи</t>
+  </si>
+  <si>
+    <t>Код статьи, которая позволяет связать с LEA</t>
+  </si>
+  <si>
+    <t>НИСЭИ код муниципалитета обеспокоен статьи</t>
+  </si>
+  <si>
+    <t>Темы имя и отмеченных на статьи</t>
+  </si>
+  <si>
+    <t>Статья заряда / зарядки / -</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор для посещения.</t>
+  </si>
+  <si>
+    <t>Ключевые слова помечены на статьи</t>
+  </si>
+  <si>
+    <t>2-й уровень информационного поля "страницы (страниц)"</t>
+  </si>
+  <si>
+    <t>Подробная информация о пути навигации к статье рассматривается</t>
+  </si>
+  <si>
+    <t>Подробная информация о шагах преобразования тоннеля</t>
+  </si>
+  <si>
+    <t>Процесс, который люди должны путешествовать, чтобы достичь цели, не отказываясь от</t>
+  </si>
+  <si>
+    <t>Название сайта, данные извлекаются</t>
+  </si>
+  <si>
+    <t>Оператор системы интернет</t>
+  </si>
+  <si>
+    <t>Тип мобильного устройства используются для содержания просмотра</t>
+  </si>
+  <si>
+    <t>Введите мобильной ОС, используемый для консультаций содержания</t>
+  </si>
+  <si>
+    <t>Укажите адрес электронной почты отправлено в контакте</t>
+  </si>
+  <si>
+    <t>Сроки поставки электронной почты маркетинга</t>
+  </si>
+  <si>
+    <t>В поисковой системе выбранной вкладке</t>
+  </si>
+  <si>
+    <t>Желаемый двигателя используется</t>
+  </si>
+  <si>
+    <t>Домен, через который пользователь прибыл</t>
+  </si>
+  <si>
+    <t>Что различие между этим полем и «типов источников», «Global Sources"?</t>
+  </si>
+  <si>
+    <t>Кампания опережающий контакт просмотре веб-сайта</t>
+  </si>
+  <si>
+    <t>Это сенсорный пришли на сайт через кампанию или SEO сайт?</t>
+  </si>
+  <si>
+    <t>Что различие между этим полем и «Источники», «Global Sources"?</t>
+  </si>
+  <si>
+    <t>Что различие между этим полем и «источники», «Типы источник"?</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1657,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="132" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1540,15 +1667,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="132" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="132" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="132" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="132" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="307">
     <cellStyle name="20 % - Accent1 2" xfId="5"/>
@@ -1865,12 +2004,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1912,7 +2054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1947,7 +2089,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2156,104 +2298,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="68.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="68.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2263,968 +2423,1083 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="114" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="76.42578125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="K2" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="K3" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="K4" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="K5" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="K6" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="K7" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+      <c r="K9" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="K10" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="K11" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="K12" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="K13" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="K14" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
+      <c r="K15" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10" t="s">
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="K17" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="K18" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
+      <c r="K19" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
+      <c r="K20" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
+      <c r="K21" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
+      <c r="K22" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
+      <c r="K23" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
+      <c r="K25" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
+      <c r="K26" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="K27" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
+      <c r="K29" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10" t="s">
+      <c r="K30" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10" t="s">
+      <c r="K31" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10" t="s">
+      <c r="K32" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10" t="s">
+      <c r="K33" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10" t="s">
+      <c r="K34" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10" t="s">
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10" t="s">
+      <c r="K35" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
+      <c r="K36" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10" t="s">
+      <c r="K37" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10" t="s">
+      <c r="K38" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10" t="s">
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="8" t="s">
         <v>141</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
